--- a/data/interin/extrato_conta_corrente_bruto.xlsx
+++ b/data/interin/extrato_conta_corrente_bruto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J655"/>
+  <dimension ref="A1:J843"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26300,6 +26300,7550 @@
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
     </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>G331251</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>9666911</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>25/09/20</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>14:37:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Ex</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>trato de</t>
+        </is>
+      </c>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>nta</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Cliente - Conta atual</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Agência 3575-0</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
+      <c r="H660" t="inlineStr"/>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Conta corrente 7933-2S</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>EED FEB</t>
+        </is>
+      </c>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
+      <c r="H661" t="inlineStr"/>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Período do extrato 07 / 2025</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
+      <c r="H662" t="inlineStr"/>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Lançamentos</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Dt. balancete Dt. movimento</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>Ag. origem</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>Lote</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>His</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>tórico</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>Documento</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>Valor R</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>30/06/2025</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>Saldo Anterior</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr"/>
+      <c r="H665" t="inlineStr"/>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>3.335,05</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>1.638.799,22</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>02/07/2025</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>1.642.134,27</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr"/>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>215,70</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>105.994,94</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>202.500.621</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>333,78</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>03/07/2025</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>105.876,86</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B674" t="inlineStr"/>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr"/>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G675" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H675" t="inlineStr">
+        <is>
+          <t>2.282,72</t>
+        </is>
+      </c>
+      <c r="I675" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G676" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H676" t="inlineStr">
+        <is>
+          <t>214.738,78</t>
+        </is>
+      </c>
+      <c r="I676" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G677" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H677" t="inlineStr">
+        <is>
+          <t>1.034.890,93</t>
+        </is>
+      </c>
+      <c r="I677" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>04/07/2025</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>1.251.912,43</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J678" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G679" t="inlineStr"/>
+      <c r="H679" t="inlineStr"/>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>14138</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr">
+        <is>
+          <t>ORDEM BANC CANCELADA</t>
+        </is>
+      </c>
+      <c r="G680" t="inlineStr">
+        <is>
+          <t>2.025.189.730.000</t>
+        </is>
+      </c>
+      <c r="H680" t="inlineStr">
+        <is>
+          <t>103,93</t>
+        </is>
+      </c>
+      <c r="I680" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G681" t="inlineStr">
+        <is>
+          <t>202.500.633</t>
+        </is>
+      </c>
+      <c r="H681" t="inlineStr">
+        <is>
+          <t>38.093.641,52</t>
+        </is>
+      </c>
+      <c r="I681" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G682" t="inlineStr">
+        <is>
+          <t>202.500.634</t>
+        </is>
+      </c>
+      <c r="H682" t="inlineStr">
+        <is>
+          <t>5.702.522,31</t>
+        </is>
+      </c>
+      <c r="I682" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>08/07/2025</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G683" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H683" t="inlineStr">
+        <is>
+          <t>43.796.059,90</t>
+        </is>
+      </c>
+      <c r="I683" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J683" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G684" t="inlineStr"/>
+      <c r="H684" t="inlineStr"/>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>25.087</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>18.071.060,59</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G686" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="H686" t="inlineStr">
+        <is>
+          <t>190.519,35</t>
+        </is>
+      </c>
+      <c r="I686" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G687" t="inlineStr">
+        <is>
+          <t>202.500.638</t>
+        </is>
+      </c>
+      <c r="H687" t="inlineStr">
+        <is>
+          <t>97.539,73</t>
+        </is>
+      </c>
+      <c r="I687" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>09/07/2025</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G688" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H688" t="inlineStr">
+        <is>
+          <t>18.359.119,67</t>
+        </is>
+      </c>
+      <c r="I688" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J688" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B689" t="inlineStr"/>
+      <c r="C689" t="inlineStr"/>
+      <c r="D689" t="inlineStr"/>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>747,24</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>457.261,51</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>896,01</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G693" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H693" t="inlineStr">
+        <is>
+          <t>88.582,81</t>
+        </is>
+      </c>
+      <c r="I693" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G694" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H694" t="inlineStr">
+        <is>
+          <t>246.309,68</t>
+        </is>
+      </c>
+      <c r="I694" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G695" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H695" t="inlineStr">
+        <is>
+          <t>186,91</t>
+        </is>
+      </c>
+      <c r="I695" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G696" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H696" t="inlineStr">
+        <is>
+          <t>269.604,92</t>
+        </is>
+      </c>
+      <c r="I696" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>24.037,36</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>13.945,29</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>556.113,91</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>1.292.801,37</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G701" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H701" t="inlineStr">
+        <is>
+          <t>15.253.002,77</t>
+        </is>
+      </c>
+      <c r="I701" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G702" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H702" t="inlineStr">
+        <is>
+          <t>6.542,45</t>
+        </is>
+      </c>
+      <c r="I702" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G703" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H703" t="inlineStr">
+        <is>
+          <t>24.037,36</t>
+        </is>
+      </c>
+      <c r="I703" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>10/07/2025</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G704" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H704" t="inlineStr">
+        <is>
+          <t>18.185.994,87</t>
+        </is>
+      </c>
+      <c r="I704" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J704" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G705" t="inlineStr"/>
+      <c r="H705" t="inlineStr"/>
+      <c r="I705" t="inlineStr"/>
+      <c r="J705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>202.500.703</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>872.518,09</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>16/07/2025</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>872.518,09</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J707" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B708" t="inlineStr"/>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr"/>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>37.760</t>
+        </is>
+      </c>
+      <c r="H709" t="inlineStr">
+        <is>
+          <t>10.029,56</t>
+        </is>
+      </c>
+      <c r="I709" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>17/07/2025</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H710" t="inlineStr">
+        <is>
+          <t>10.029,56</t>
+        </is>
+      </c>
+      <c r="I710" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J710" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B711" t="inlineStr"/>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr"/>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>193,64</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>410.601,90</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>954.528,74</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H715" t="inlineStr">
+        <is>
+          <t>10.506.370,65</t>
+        </is>
+      </c>
+      <c r="I715" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G716" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H716" t="inlineStr">
+        <is>
+          <t>4.830,61</t>
+        </is>
+      </c>
+      <c r="I716" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G717" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H717" t="inlineStr">
+        <is>
+          <t>13.606,01</t>
+        </is>
+      </c>
+      <c r="I717" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>7.893,54</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>13.606,01</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>891.991.200.080.793</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr">
+        <is>
+          <t>rança referente 18/07/2025</t>
+        </is>
+      </c>
+      <c r="G721" t="inlineStr"/>
+      <c r="H721" t="inlineStr"/>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>18/07/2025</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G722" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H722" t="inlineStr">
+        <is>
+          <t>11.884.409,06</t>
+        </is>
+      </c>
+      <c r="I722" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J722" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B723" t="inlineStr"/>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr"/>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>3.647,15</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>303.476,32</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>12.265.748,61</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>24/07/2025</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G727" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H727" t="inlineStr">
+        <is>
+          <t>12.572.872,08</t>
+        </is>
+      </c>
+      <c r="I727" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J727" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B728" t="inlineStr"/>
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr"/>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G729" t="inlineStr">
+        <is>
+          <t>202.500.726</t>
+        </is>
+      </c>
+      <c r="H729" t="inlineStr">
+        <is>
+          <t>334.765,03</t>
+        </is>
+      </c>
+      <c r="I729" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>29/07/2025</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G730" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H730" t="inlineStr">
+        <is>
+          <t>334.765,03</t>
+        </is>
+      </c>
+      <c r="I730" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J730" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G731" t="inlineStr"/>
+      <c r="H731" t="inlineStr"/>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>57,62</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>806.827,07</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G734" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H734" t="inlineStr">
+        <is>
+          <t>1.875.635,54</t>
+        </is>
+      </c>
+      <c r="I734" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F735" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G735" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H735" t="inlineStr">
+        <is>
+          <t>21.141.536,67</t>
+        </is>
+      </c>
+      <c r="I735" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>9.492,09</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>3.622,69</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>2.101,71</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G739" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H739" t="inlineStr">
+        <is>
+          <t>3.622,69</t>
+        </is>
+      </c>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G740" t="inlineStr">
+        <is>
+          <t>58.247</t>
+        </is>
+      </c>
+      <c r="H740" t="inlineStr">
+        <is>
+          <t>34.069.004,91</t>
+        </is>
+      </c>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>58.249</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>562.903,57</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>58.251</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>262.548,12</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>230.102</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>694,48</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G744" t="inlineStr">
+        <is>
+          <t>530.201</t>
+        </is>
+      </c>
+      <c r="H744" t="inlineStr">
+        <is>
+          <t>15.374,74</t>
+        </is>
+      </c>
+      <c r="I744" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G745" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="H745" t="inlineStr">
+        <is>
+          <t>585.749,27</t>
+        </is>
+      </c>
+      <c r="I745" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>940.101</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>15.069,47</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>892.111.200.089.865</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>15,06</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr">
+        <is>
+          <t>rança referente 30/07/2025</t>
+        </is>
+      </c>
+      <c r="G748" t="inlineStr"/>
+      <c r="H748" t="inlineStr"/>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G749" t="inlineStr">
+        <is>
+          <t>892.111.200.089.866</t>
+        </is>
+      </c>
+      <c r="H749" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="I749" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B750" t="inlineStr"/>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr"/>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr">
+        <is>
+          <t>rança referente 30/07/2025</t>
+        </is>
+      </c>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>11.675.712,64</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J751" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G752" t="inlineStr"/>
+      <c r="H752" t="inlineStr"/>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>31/07/2025</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr">
+        <is>
+          <t>S A L D O</t>
+        </is>
+      </c>
+      <c r="G753" t="inlineStr"/>
+      <c r="H753" t="inlineStr"/>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>*** A CONTA NAO</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>FOI MOVI</t>
+        </is>
+      </c>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>MENTA</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>DA</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>------------------------</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>---------</t>
+        </is>
+      </c>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr">
+        <is>
+          <t>-------</t>
+        </is>
+      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>OBSERV</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>AÇÕES:</t>
+        </is>
+      </c>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr"/>
+      <c r="H756" t="inlineStr"/>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>------------------------</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>---------</t>
+        </is>
+      </c>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr">
+        <is>
+          <t>-------</t>
+        </is>
+      </c>
+      <c r="G757" t="inlineStr"/>
+      <c r="H757" t="inlineStr"/>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Transação efetuada com sucesso</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>por: JG761</t>
+        </is>
+      </c>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>208 AI</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>LTO</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr">
+        <is>
+          <t>N AZEVEDO MARQUES DA NO</t>
+        </is>
+      </c>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>BREGA.</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr"/>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Serviço de Atendimento ao Consu</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>midor - SAC</t>
+        </is>
+      </c>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>0800</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr">
+        <is>
+          <t>0722 Ouvido</t>
+        </is>
+      </c>
+      <c r="G759" t="inlineStr">
+        <is>
+          <t>ria BB 0800 729 567</t>
+        </is>
+      </c>
+      <c r="H759" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B760" t="inlineStr"/>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr"/>
+      <c r="E760" t="inlineStr"/>
+      <c r="F760" t="inlineStr">
+        <is>
+          <t>Para d</t>
+        </is>
+      </c>
+      <c r="G760" t="inlineStr">
+        <is>
+          <t>eficientes auditivos 0</t>
+        </is>
+      </c>
+      <c r="H760" t="inlineStr">
+        <is>
+          <t>800 729 0088</t>
+        </is>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr"/>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>G331251</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="J761" t="inlineStr">
+        <is>
+          <t>9666911</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr"/>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>25/09/20</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J762" t="inlineStr">
+        <is>
+          <t>14:41:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>Ex</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>trato de</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>nta</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="G763" t="inlineStr"/>
+      <c r="H763" t="inlineStr"/>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Cliente - Conta atual</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr"/>
+      <c r="E764" t="inlineStr"/>
+      <c r="F764" t="inlineStr"/>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Agência 3575-0</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr"/>
+      <c r="E765" t="inlineStr"/>
+      <c r="F765" t="inlineStr"/>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Conta corrente 7933-2S</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>EED FEB</t>
+        </is>
+      </c>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr"/>
+      <c r="H766" t="inlineStr"/>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Período do extrato 08 / 2025</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr"/>
+      <c r="H767" t="inlineStr"/>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Lançamentos</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr"/>
+      <c r="H768" t="inlineStr"/>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Dt. balancete Dt. movimento</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>Ag. origem</t>
+        </is>
+      </c>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>Lote</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>His</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr">
+        <is>
+          <t>tórico</t>
+        </is>
+      </c>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>Documento</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>Valor R</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>$</t>
+        </is>
+      </c>
+      <c r="J769" t="inlineStr">
+        <is>
+          <t>Saldo</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>30/07/2025</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>000</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr">
+        <is>
+          <t>Saldo Anterior</t>
+        </is>
+      </c>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G771" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H771" t="inlineStr">
+        <is>
+          <t>22.403,66</t>
+        </is>
+      </c>
+      <c r="I771" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>399.686,14</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>933.102,97</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>06/08/2025</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>1.355.192,77</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J774" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B775" t="inlineStr"/>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr"/>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G776" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H776" t="inlineStr">
+        <is>
+          <t>201,73</t>
+        </is>
+      </c>
+      <c r="I776" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>1.274.642,98</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>2.963.169,87</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G779" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H779" t="inlineStr">
+        <is>
+          <t>33.511.742,38</t>
+        </is>
+      </c>
+      <c r="I779" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G780" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H780" t="inlineStr">
+        <is>
+          <t>14.995,77</t>
+        </is>
+      </c>
+      <c r="I780" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>26.384,57</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>15.307,02</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>14138</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr">
+        <is>
+          <t>ORDEM BANC CANCELADA</t>
+        </is>
+      </c>
+      <c r="G783" t="inlineStr">
+        <is>
+          <t>2.025.219.130.000</t>
+        </is>
+      </c>
+      <c r="H783" t="inlineStr">
+        <is>
+          <t>103,93</t>
+        </is>
+      </c>
+      <c r="I783" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G784" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H784" t="inlineStr">
+        <is>
+          <t>26.384,57</t>
+        </is>
+      </c>
+      <c r="I784" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>202.500.739</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>25.894.511,27</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>202.500.740</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>18.077.541,43</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G787" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H787" t="inlineStr">
+        <is>
+          <t>6.191.889,02</t>
+        </is>
+      </c>
+      <c r="I787" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J787" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B788" t="inlineStr"/>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr"/>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G789" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H789" t="inlineStr">
+        <is>
+          <t>2.436,63</t>
+        </is>
+      </c>
+      <c r="I789" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G790" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H790" t="inlineStr">
+        <is>
+          <t>203.809,33</t>
+        </is>
+      </c>
+      <c r="I790" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>2.180.672,00</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>12/08/2025</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>2.386.917,96</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J792" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B793" t="inlineStr"/>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr"/>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G794" t="inlineStr">
+        <is>
+          <t>202.500.756</t>
+        </is>
+      </c>
+      <c r="H794" t="inlineStr">
+        <is>
+          <t>67.528,53</t>
+        </is>
+      </c>
+      <c r="I794" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>15/08/2025</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>67.528,53</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J795" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G796" t="inlineStr"/>
+      <c r="H796" t="inlineStr"/>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr">
+        <is>
+          <t>ITCMD</t>
+        </is>
+      </c>
+      <c r="G797" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H797" t="inlineStr">
+        <is>
+          <t>4.874,33</t>
+        </is>
+      </c>
+      <c r="I797" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr">
+        <is>
+          <t>IPVA</t>
+        </is>
+      </c>
+      <c r="G798" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H798" t="inlineStr">
+        <is>
+          <t>211.451,61</t>
+        </is>
+      </c>
+      <c r="I798" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr">
+        <is>
+          <t>RECEBIMENTO DE ICMS</t>
+        </is>
+      </c>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>1.455.794,79</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>18/08/2025</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>1.672.120,73</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J800" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B801" t="inlineStr"/>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G801" t="inlineStr"/>
+      <c r="H801" t="inlineStr"/>
+      <c r="I801" t="inlineStr"/>
+      <c r="J801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G802" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H802" t="inlineStr">
+        <is>
+          <t>9,39</t>
+        </is>
+      </c>
+      <c r="I802" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G803" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H803" t="inlineStr">
+        <is>
+          <t>240.603,28</t>
+        </is>
+      </c>
+      <c r="I803" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>559.331,89</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>6.281.143,20</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>2.830,59</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G807" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H807" t="inlineStr">
+        <is>
+          <t>9.968,98</t>
+        </is>
+      </c>
+      <c r="I807" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G808" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H808" t="inlineStr">
+        <is>
+          <t>5.783,51</t>
+        </is>
+      </c>
+      <c r="I808" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>9.968,98</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>20/08/2025</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr">
+        <is>
+          <t>BB-APLIC C.PRZ-APL.AUT</t>
+        </is>
+      </c>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>7.089.701,86</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J810" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G811" t="inlineStr"/>
+      <c r="H811" t="inlineStr"/>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>28/08/2025</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>13138</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr">
+        <is>
+          <t>Emissão Ordem Bancária</t>
+        </is>
+      </c>
+      <c r="G812" t="inlineStr">
+        <is>
+          <t>202.500.833</t>
+        </is>
+      </c>
+      <c r="H812" t="inlineStr">
+        <is>
+          <t>326.706,28</t>
+        </is>
+      </c>
+      <c r="I812" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>28/08/2025</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G813" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H813" t="inlineStr">
+        <is>
+          <t>326.706,28</t>
+        </is>
+      </c>
+      <c r="I813" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J813" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr"/>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G814" t="inlineStr"/>
+      <c r="H814" t="inlineStr"/>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="inlineStr"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D815" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+      <c r="F815" t="inlineStr">
+        <is>
+          <t>ITR</t>
+        </is>
+      </c>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>4.341,11</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J815" t="inlineStr"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D816" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F816" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>824.676,46</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J816" t="inlineStr"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D817" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F817" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G817" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H817" t="inlineStr">
+        <is>
+          <t>1.917.130,08</t>
+        </is>
+      </c>
+      <c r="I817" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J817" t="inlineStr"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D818" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F818" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G818" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H818" t="inlineStr">
+        <is>
+          <t>21.603.629,52</t>
+        </is>
+      </c>
+      <c r="I818" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J818" t="inlineStr"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D819" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="F819" t="inlineStr">
+        <is>
+          <t>FPE/FPM</t>
+        </is>
+      </c>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>9.702,04</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J819" t="inlineStr"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D820" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F820" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>9.229,52</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J820" t="inlineStr"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D821" t="inlineStr">
+        <is>
+          <t>14011</t>
+        </is>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="F821" t="inlineStr">
+        <is>
+          <t>IPI/EXPORTACAO</t>
+        </is>
+      </c>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>5.354,50</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J821" t="inlineStr"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D822" t="inlineStr">
+        <is>
+          <t>13011</t>
+        </is>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F822" t="inlineStr">
+        <is>
+          <t>COTA DAF-DEBITO</t>
+        </is>
+      </c>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>850</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>9.229,52</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J822" t="inlineStr"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D823" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F823" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G823" t="inlineStr">
+        <is>
+          <t>81.953</t>
+        </is>
+      </c>
+      <c r="H823" t="inlineStr">
+        <is>
+          <t>33.152.856,07</t>
+        </is>
+      </c>
+      <c r="I823" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D824" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F824" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G824" t="inlineStr">
+        <is>
+          <t>81.955</t>
+        </is>
+      </c>
+      <c r="H824" t="inlineStr">
+        <is>
+          <t>552.605,62</t>
+        </is>
+      </c>
+      <c r="I824" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D825" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F825" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G825" t="inlineStr">
+        <is>
+          <t>81.957</t>
+        </is>
+      </c>
+      <c r="H825" t="inlineStr">
+        <is>
+          <t>264.566,68</t>
+        </is>
+      </c>
+      <c r="I825" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D826" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F826" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G826" t="inlineStr">
+        <is>
+          <t>230.102</t>
+        </is>
+      </c>
+      <c r="H826" t="inlineStr">
+        <is>
+          <t>694,48</t>
+        </is>
+      </c>
+      <c r="I826" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D827" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F827" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>530.201</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>15.374,74</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D828" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="F828" t="inlineStr">
+        <is>
+          <t>Folha de Pagamento</t>
+        </is>
+      </c>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>580.101</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>586.497,61</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D829" t="inlineStr">
+        <is>
+          <t>13134</t>
+        </is>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="F829" t="inlineStr">
+        <is>
+          <t>Pagamentos Diversos</t>
+        </is>
+      </c>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>940.101</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>12.569,47</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D830" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F830" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G830" t="inlineStr">
+        <is>
+          <t>892.411.200.194.639</t>
+        </is>
+      </c>
+      <c r="H830" t="inlineStr">
+        <is>
+          <t>12,56</t>
+        </is>
+      </c>
+      <c r="I830" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B831" t="inlineStr"/>
+      <c r="C831" t="inlineStr"/>
+      <c r="D831" t="inlineStr"/>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="F831" t="inlineStr">
+        <is>
+          <t>rança referente 29/08/2025</t>
+        </is>
+      </c>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D832" t="inlineStr">
+        <is>
+          <t>13113</t>
+        </is>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="F832" t="inlineStr">
+        <is>
+          <t>Tar Lib/Ant Float Pg Div</t>
+        </is>
+      </c>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>892.411.200.194.640</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="J832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>Cob</t>
+        </is>
+      </c>
+      <c r="F833" t="inlineStr">
+        <is>
+          <t>rança referente 29/08/2025</t>
+        </is>
+      </c>
+      <c r="G833" t="inlineStr"/>
+      <c r="H833" t="inlineStr"/>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>29/08/2025</t>
+        </is>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D834" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="F834" t="inlineStr">
+        <is>
+          <t>Resgate Automático</t>
+        </is>
+      </c>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>1.972</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>10.220.347,45</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="J834" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="F835" t="inlineStr">
+        <is>
+          <t>RF Curto Prazo Automático</t>
+        </is>
+      </c>
+      <c r="G835" t="inlineStr"/>
+      <c r="H835" t="inlineStr"/>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>31/08/2025</t>
+        </is>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>0000</t>
+        </is>
+      </c>
+      <c r="D836" t="inlineStr">
+        <is>
+          <t>00000</t>
+        </is>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>999</t>
+        </is>
+      </c>
+      <c r="F836" t="inlineStr">
+        <is>
+          <t>S A L D O</t>
+        </is>
+      </c>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr">
+        <is>
+          <t>0,00 C</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>*** A CONTA NAO</t>
+        </is>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>FOI MOVI</t>
+        </is>
+      </c>
+      <c r="D837" t="inlineStr">
+        <is>
+          <t>MENTA</t>
+        </is>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>DA</t>
+        </is>
+      </c>
+      <c r="F837" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>------------------------</t>
+        </is>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>---------</t>
+        </is>
+      </c>
+      <c r="D838" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F838" t="inlineStr">
+        <is>
+          <t>-------</t>
+        </is>
+      </c>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>OBSERV</t>
+        </is>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>AÇÕES:</t>
+        </is>
+      </c>
+      <c r="D839" t="inlineStr"/>
+      <c r="E839" t="inlineStr"/>
+      <c r="F839" t="inlineStr"/>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>------------------------</t>
+        </is>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>---------</t>
+        </is>
+      </c>
+      <c r="D840" t="inlineStr">
+        <is>
+          <t>-----</t>
+        </is>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F840" t="inlineStr">
+        <is>
+          <t>-------</t>
+        </is>
+      </c>
+      <c r="G840" t="inlineStr"/>
+      <c r="H840" t="inlineStr"/>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>Transação efetuada com sucesso</t>
+        </is>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>por: JG761</t>
+        </is>
+      </c>
+      <c r="D841" t="inlineStr">
+        <is>
+          <t>208 AI</t>
+        </is>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>LTO</t>
+        </is>
+      </c>
+      <c r="F841" t="inlineStr">
+        <is>
+          <t>N AZEVEDO MARQUES DA NO</t>
+        </is>
+      </c>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>BREGA.</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr"/>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>Serviço de Atendimento ao Consu</t>
+        </is>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>midor - SAC</t>
+        </is>
+      </c>
+      <c r="D842" t="inlineStr">
+        <is>
+          <t>0800</t>
+        </is>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="F842" t="inlineStr">
+        <is>
+          <t>0722 Ouvido</t>
+        </is>
+      </c>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>ria BB 0800 729 567</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B843" t="inlineStr"/>
+      <c r="C843" t="inlineStr"/>
+      <c r="D843" t="inlineStr"/>
+      <c r="E843" t="inlineStr"/>
+      <c r="F843" t="inlineStr">
+        <is>
+          <t>Para d</t>
+        </is>
+      </c>
+      <c r="G843" t="inlineStr">
+        <is>
+          <t>eficientes auditivos 0</t>
+        </is>
+      </c>
+      <c r="H843" t="inlineStr">
+        <is>
+          <t>800 729 0088</t>
+        </is>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
